--- a/biology/Origine et évolution du vivant/Xenarthra_(classification_phylogénétique)/Xenarthra_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Xenarthra_(classification_phylogénétique)/Xenarthra_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xenarthra_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Xenarthra_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Xenarthra (Xénarthres), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Xenarthra_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Xenarthra_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -636,7 +650,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Xenarthra_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Xenarthra_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -655,6 +669,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -662,7 +678,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Xenarthra_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Xenarthra_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -682,12 +698,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-(en) Andrea L. Cirranello et al., « The Placental Mammal Ancestor and the Post–K-Pg Radiation of Placentals », Science, no 6120,‎ 2013, p. 662-667 (résumé)
-Autres sources bibliographiques
-Sources internet
-Liens internes
-Arbre phylogénétique
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Andrea L. Cirranello et al., « The Placental Mammal Ancestor and the Post–K-Pg Radiation of Placentals », Science, no 6120,‎ 2013, p. 662-667 (résumé)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xenarthra_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xenarthra_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
